--- a/2019/Others/House Rent Form.xlsx
+++ b/2019/Others/House Rent Form.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2019\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA847D-E605-4D1C-8FE3-6CA3E56E0448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4590C-984B-41ED-AF94-2DDAF18462A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,13 +115,13 @@
     </r>
   </si>
   <si>
-    <t>07.12.19</t>
-  </si>
-  <si>
     <t>Bappy</t>
   </si>
   <si>
     <t>Natore</t>
+  </si>
+  <si>
+    <t>06.02.2020</t>
   </si>
 </sst>
 </file>
@@ -354,32 +360,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -402,8 +396,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -414,14 +408,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4863,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4902,56 +4908,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14">
@@ -4972,90 +4978,90 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="29">
-        <v>2</v>
+      <c r="C6" s="23"/>
+      <c r="D6" s="33">
+        <v>4</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>21</v>
+      <c r="I6" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="40" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
@@ -5076,48 +5082,48 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="43" t="s">
-        <v>22</v>
+      <c r="K11" s="23"/>
+      <c r="L11" s="38" t="s">
+        <v>21</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="10"/>
       <c r="J12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>23</v>
+      <c r="K12" s="33" t="s">
+        <v>22</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -5133,11 +5139,11 @@
       <c r="J13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="34">
         <v>1723665709</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
@@ -5174,24 +5180,24 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
@@ -5246,56 +5252,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="5"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14">
@@ -5316,86 +5322,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="25" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="40" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="40"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="41" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14">
@@ -5416,44 +5422,44 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="17"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -5469,9 +5475,9 @@
       <c r="J34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1">
@@ -5508,24 +5514,24 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1">
@@ -5546,6 +5552,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H23:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="B29:C29"/>
@@ -5558,44 +5598,10 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H23:M24"/>
-    <mergeCell ref="I25:M25"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
